--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>towerName</t>
   </si>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>TowerGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,164 +434,188 @@
     <col min="1" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="b">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="G7" t="b">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>towerName</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>Idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,7 +438,7 @@
     <col min="1" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -462,8 +466,11 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -489,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -515,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -541,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -567,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -593,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>towerName</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>TMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄을 발사하는 타워입니다.\n범위공격을 가할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,12 +434,14 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="25.625" customWidth="1"/>
+    <col min="1" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="100.625" customWidth="1"/>
+    <col min="11" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -495,6 +501,9 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -521,6 +530,9 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -547,6 +559,9 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -573,6 +588,9 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -599,6 +617,9 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -624,6 +645,9 @@
       </c>
       <c r="H7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>towerName</t>
   </si>
@@ -84,7 +84,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭탄을 발사하는 타워입니다.\n범위공격을 가할 수 있습니다.</t>
+    <t>레이저 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Acher</t>
+  </si>
+  <si>
+    <t>화살 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄을 발사하는 타워입니다.
+범위공격을 가할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄을 발사하는 타워입니다.
+범위공격을 가할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저를 발사하는 타워입니다.
+관통이 가능하고, 쏘려면 차징 시간이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원시적인 형태의 화살을 쏘는 타워입니다.
+관통은 불가능하지만 강한 공격력을 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화약을 사용한 탄환을 쏘는 타워입니다.
+관통은 불가능하지만, 준수한 공격력에 빠른 공격속도를 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 타워에게 이로운 효과를 주는 타워입니다.
+공격은 불가능 하지만, 주변 두 타워에 공격력 증가 버프를 줍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,8 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -431,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -476,7 +535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -493,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -501,11 +560,11 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -522,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -530,11 +589,11 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -551,7 +610,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -559,11 +618,11 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -580,7 +639,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -588,11 +647,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -609,7 +668,7 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -617,11 +676,11 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -638,7 +697,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -646,8 +705,704 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>3.5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>1.5</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1.2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>1.3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1.4</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>1.6</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>towerName</t>
   </si>
@@ -141,6 +141,142 @@
   <si>
     <t>주변 타워에게 이로운 효과를 주는 타워입니다.
 공격은 불가능 하지만, 주변 두 타워에 공격력 증가 버프를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,13 +628,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="25.625" customWidth="1"/>
+    <col min="1" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="31.75" customWidth="1"/>
     <col min="10" max="10" width="100.625" customWidth="1"/>
     <col min="11" max="18" width="25.625" customWidth="1"/>
   </cols>
@@ -560,6 +697,9 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
@@ -589,6 +729,9 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
@@ -618,6 +761,9 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
@@ -647,8 +793,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -676,6 +825,9 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
@@ -705,6 +857,9 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
@@ -734,6 +889,9 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
@@ -763,6 +921,9 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
@@ -792,6 +953,9 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
@@ -821,6 +985,9 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
@@ -833,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -849,6 +1016,9 @@
       </c>
       <c r="H12" t="b">
         <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -879,6 +1049,9 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>24</v>
       </c>
@@ -908,6 +1081,9 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
@@ -937,6 +1113,9 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
@@ -966,6 +1145,9 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
       </c>
@@ -995,6 +1177,9 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1024,6 +1209,9 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1036,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1052,6 +1240,9 @@
       </c>
       <c r="H19" t="b">
         <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>25</v>
@@ -1082,6 +1273,9 @@
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1111,6 +1305,9 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1140,6 +1337,9 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1169,6 +1369,9 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1198,6 +1401,9 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1226,6 +1432,9 @@
       </c>
       <c r="H25" t="b">
         <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>30</v>
@@ -1256,6 +1465,9 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1284,6 +1496,9 @@
       </c>
       <c r="H27" t="b">
         <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>31</v>
@@ -1314,6 +1529,9 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
       <c r="J28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1343,6 +1561,9 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1372,6 +1593,9 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1400,6 +1624,9 @@
       </c>
       <c r="H31" t="b">
         <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -144,140 +144,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerIcon/Grenadier/Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Grenadier/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Grenadier/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Grenadier/Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Grenadier/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Grenadier/Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerIcon/Buff/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Buff/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Buff/Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Buff/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Buff/Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerIcon/Bullet/Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Buff/Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Bullet/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Bullet/Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Bullet/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Bullet/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Bullet/Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Acher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerIcon/Acher/Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Acher/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Acher/Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Acher/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Acher/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Acher/Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Laser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerIcon/Laser/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Laser/Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Laser/Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Laser/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Laser/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerIcon/Laser/Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>TowerIcon/Acher/ArrowTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/ArrowTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/ArrowTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/ArrowTower4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/ArrowTower5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Acher/ArrowTower6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Bullet/BulletTower6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Buff/SupTower6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower2</t>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower3</t>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower4</t>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower5</t>
+  </si>
+  <si>
+    <t>TowerIcon/Laser/LazerTower6</t>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower2</t>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower3</t>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower4</t>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower5</t>
+  </si>
+  <si>
+    <t>TowerIcon/Grenadier/BoomTower6</t>
   </si>
 </sst>
 </file>
@@ -628,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -730,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -762,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -794,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -826,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -858,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
@@ -890,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
@@ -922,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
@@ -954,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
@@ -986,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
@@ -1000,7 +990,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1018,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -1050,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>24</v>
@@ -1082,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
@@ -1114,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
@@ -1146,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
@@ -1178,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
@@ -1210,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>25</v>
@@ -1224,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1242,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>25</v>
@@ -1274,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1306,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>30</v>
@@ -1338,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
@@ -1370,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>30</v>
@@ -1402,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>30</v>
@@ -1416,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1434,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>30</v>
@@ -1466,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>31</v>
@@ -1480,7 +1470,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1498,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>31</v>
@@ -1530,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>31</v>
@@ -1562,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>31</v>
@@ -1594,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>31</v>
@@ -1626,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -618,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1633,20 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
   <si>
     <t>towerName</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -719,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -751,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -783,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -815,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -847,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
@@ -879,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
@@ -911,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
@@ -943,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
@@ -975,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
@@ -989,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1007,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -1039,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>24</v>
@@ -1071,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
@@ -1103,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
@@ -1135,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
@@ -1167,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
@@ -1199,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>25</v>
@@ -1213,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1231,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>25</v>
@@ -1263,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1295,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>30</v>
@@ -1327,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
@@ -1359,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>30</v>
@@ -1391,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>30</v>
@@ -1405,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1423,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>30</v>
@@ -1455,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>31</v>
@@ -1487,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>31</v>
@@ -1519,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>31</v>
@@ -1551,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>31</v>
@@ -1583,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>31</v>
@@ -1615,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>
@@ -1632,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/TrickyTowerDefense/Assets/Data/TowerData.xlsx
+++ b/TrickyTowerDefense/Assets/Data/TowerData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
     <sheet name="Enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="EnemyData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>towerName</t>
   </si>
@@ -263,6 +264,34 @@
   </si>
   <si>
     <t>TowerIcon/Grenadier/BoomTower6</t>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBossRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyCount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyCount3</t>
+  </si>
+  <si>
+    <t>enemyCount4</t>
+  </si>
+  <si>
+    <t>enemyCount5</t>
+  </si>
+  <si>
+    <t>enemyCount6</t>
   </si>
 </sst>
 </file>
@@ -613,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1637,4 +1666,1216 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>